--- a/biology/Zoologie/Colin_à_gorge_noire/Colin_à_gorge_noire.xlsx
+++ b/biology/Zoologie/Colin_à_gorge_noire/Colin_à_gorge_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_gorge_noire</t>
+          <t>Colin_à_gorge_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colinus nigrogularis
 Le Colin à gorge noire (Colinus nigrogularis) est une espèce d'oiseaux galliformes appartenant à la famille des Odontophoridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_gorge_noire</t>
+          <t>Colin_à_gorge_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure entre 17 et 20 cm de longueur. La face du mâle est noire avec des bandes blanches au-dessus et en dessous de l'œil, la gorge est aussi noire tandis que le sommet de la tête est roux. La poitrine et le ventre sont blancs tachés de noir, les ailes et la queue sont rousses. Les femelles ressemblent au Colin de Virginie avec la gorge marron.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_gorge_noire</t>
+          <t>Colin_à_gorge_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le Colin de Virginie, il émet un bruit ressemblant à "Cotui".
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_gorge_noire</t>
+          <t>Colin_à_gorge_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les savanes, les champs et les buissons près des étendues d'eau.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_gorge_noire</t>
+          <t>Colin_à_gorge_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
 Colinus nigrogularis caboti van Tyne &amp; Trautman, 1941 — péninsule du Yucatán ;
